--- a/Test computations.xlsx
+++ b/Test computations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alfredoa\source\repos\ErgoLux\ErgoLux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\Documents\Visual Studio 2017\Projects\RadialGaugePlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0AD57-7160-487A-B554-272C5BB8F40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20010" windowHeight="8715"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Initial</t>
   </si>
@@ -40,11 +41,14 @@
   <si>
     <t>Data raw</t>
   </si>
+  <si>
+    <t>Single</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,24 +360,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -388,8 +402,14 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>100</v>
       </c>
@@ -399,8 +419,20 @@
       <c r="D4">
         <v>360</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>270</v>
+      </c>
+      <c r="F4" s="1">
+        <v>117.26384735107401</v>
+      </c>
+      <c r="G4">
+        <v>270</v>
+      </c>
+      <c r="H4" s="1">
+        <v>117.26384735107401</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>80</v>
       </c>
@@ -410,8 +442,20 @@
       <c r="D5">
         <v>288</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>387.26385498046801</v>
+      </c>
+      <c r="F5" s="1">
+        <v>93.811073303222599</v>
+      </c>
+      <c r="G5" s="1">
+        <v>387.26385498046801</v>
+      </c>
+      <c r="H5" s="1">
+        <v>93.811073303222599</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>65</v>
       </c>
@@ -421,8 +465,20 @@
       <c r="D6">
         <v>234</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>481.07492065429602</v>
+      </c>
+      <c r="F6" s="1">
+        <v>76.221496582031193</v>
+      </c>
+      <c r="G6" s="1">
+        <v>481.07492065429602</v>
+      </c>
+      <c r="H6" s="1">
+        <v>76.221496582031193</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>42</v>
       </c>
@@ -432,8 +488,20 @@
       <c r="D7">
         <v>151.19999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>557.29638671875</v>
+      </c>
+      <c r="F7" s="1">
+        <v>49.2508125305175</v>
+      </c>
+      <c r="G7" s="1">
+        <v>557.29638671875</v>
+      </c>
+      <c r="H7" s="1">
+        <v>49.2508125305175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-20</v>
       </c>
@@ -442,6 +510,18 @@
       </c>
       <c r="D8">
         <v>-72</v>
+      </c>
+      <c r="E8" s="1">
+        <v>270</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-23.4527683258056</v>
+      </c>
+      <c r="G8" s="1">
+        <v>270</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-23.4527683258056</v>
       </c>
     </row>
   </sheetData>

--- a/Test computations.xlsx
+++ b/Test computations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arthurit\Documents\Visual Studio 2017\Projects\RadialGaugePlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B0AD57-7160-487A-B554-272C5BB8F40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62892D-6E1F-485A-AB55-FF3039ECAFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="63">
   <si>
     <t>Initial</t>
   </si>
@@ -42,7 +42,178 @@
     <t>Data raw</t>
   </si>
   <si>
+    <t>ComputeAngularData init</t>
+  </si>
+  <si>
+    <t>AngleInit: 270</t>
+  </si>
+  <si>
+    <t>DataAngular[0, 0]: 270</t>
+  </si>
+  <si>
+    <t>AngleSumNeg: 270</t>
+  </si>
+  <si>
+    <t>DataAngular[4, 0]: 270</t>
+  </si>
+  <si>
+    <t>Render</t>
+  </si>
+  <si>
+    <t>DataRaw[0]: 100</t>
+  </si>
+  <si>
+    <t>angleStart: 270</t>
+  </si>
+  <si>
+    <t>angleStartNeg: 270</t>
+  </si>
+  <si>
+    <t>DataRaw[1]: 80</t>
+  </si>
+  <si>
+    <t>DataRaw[2]: 65</t>
+  </si>
+  <si>
+    <t>DataRaw[3]: 42</t>
+  </si>
+  <si>
+    <t>DataRaw[4]: -20</t>
+  </si>
+  <si>
+    <t>AngleSwept: 117,26385</t>
+  </si>
+  <si>
+    <t>DataAngular[0, 0]: 117,26384735107422</t>
+  </si>
+  <si>
+    <t>AngleSumPos: 387,26385</t>
+  </si>
+  <si>
+    <t>AngleInit: 387,26385</t>
+  </si>
+  <si>
+    <t>AngleSwept: 93,81107</t>
+  </si>
+  <si>
+    <t>DataAngular[1, 0]: 387,26385498046875</t>
+  </si>
+  <si>
+    <t>DataAngular[1, 0]: 93,81107330322266</t>
+  </si>
+  <si>
+    <t>AngleSumPos: 481,07492</t>
+  </si>
+  <si>
+    <t>AngleInit: 481,07492</t>
+  </si>
+  <si>
+    <t>AngleSwept: 76,2215</t>
+  </si>
+  <si>
+    <t>DataAngular[2, 0]: 481,0749206542969</t>
+  </si>
+  <si>
+    <t>DataAngular[2, 0]: 76,22149658203125</t>
+  </si>
+  <si>
+    <t>AngleSumPos: 557,2964</t>
+  </si>
+  <si>
+    <t>AngleInit: 557,2964</t>
+  </si>
+  <si>
+    <t>AngleSwept: 49,250813</t>
+  </si>
+  <si>
+    <t>DataAngular[3, 0]: 557,29638671875</t>
+  </si>
+  <si>
+    <t>DataAngular[3, 0]: 49,25081253051758</t>
+  </si>
+  <si>
+    <t>AngleSumPos: 606,5472</t>
+  </si>
+  <si>
+    <t>AngleSwept: -23,452768</t>
+  </si>
+  <si>
+    <t>DataAngular[4, 0]: -23,452768325805664</t>
+  </si>
+  <si>
+    <t>AngleSumNeg: 246,54723</t>
+  </si>
+  <si>
+    <t>sweepAngle: 117,26385</t>
+  </si>
+  <si>
+    <t>sweepAngle: 93,81107</t>
+  </si>
+  <si>
+    <t>angleStart: 387,26385</t>
+  </si>
+  <si>
+    <t>sweepAngle: 76,2215</t>
+  </si>
+  <si>
+    <t>angleStart: 481,07492</t>
+  </si>
+  <si>
+    <t>sweepAngle: 49,250813</t>
+  </si>
+  <si>
+    <t>angleStart: 557,2964</t>
+  </si>
+  <si>
+    <t>sweepAngle: -23,452768</t>
+  </si>
+  <si>
+    <t>angleStart: 606,5472</t>
+  </si>
+  <si>
     <t>Single</t>
+  </si>
+  <si>
+    <t>DataAngular[0, 0]: -117,26384735107422</t>
+  </si>
+  <si>
+    <t>DataAngular[1, 0]: -93,81107330322266</t>
+  </si>
+  <si>
+    <t>DataAngular[2, 0]: -76,22149658203125</t>
+  </si>
+  <si>
+    <t>DataAngular[3, 0]: -49,25081253051758</t>
+  </si>
+  <si>
+    <t>DataAngular[4, 0]: 23,452768325805664</t>
+  </si>
+  <si>
+    <t>sweepAngle: -117,26385</t>
+  </si>
+  <si>
+    <t>sweepAngle: -93,81107</t>
+  </si>
+  <si>
+    <t>angleStart: 152,73615</t>
+  </si>
+  <si>
+    <t>sweepAngle: -76,2215</t>
+  </si>
+  <si>
+    <t>angleStart: 58,92507</t>
+  </si>
+  <si>
+    <t>sweepAngle: -49,250813</t>
+  </si>
+  <si>
+    <t>angleStart: -17,296425</t>
+  </si>
+  <si>
+    <t>sweepAngle: 23,452768</t>
+  </si>
+  <si>
+    <t>angleStart: -66,54724</t>
   </si>
 </sst>
 </file>
@@ -361,9 +532,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H8"/>
+  <dimension ref="B2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -375,7 +548,7 @@
     <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -383,10 +556,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -408,8 +581,11 @@
       <c r="H3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>100</v>
       </c>
@@ -431,8 +607,26 @@
       <c r="H4" s="1">
         <v>117.26384735107401</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>80</v>
       </c>
@@ -454,8 +648,26 @@
       <c r="H5" s="1">
         <v>93.811073303222599</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>65</v>
       </c>
@@ -477,8 +689,26 @@
       <c r="H6" s="1">
         <v>76.221496582031193</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>42</v>
       </c>
@@ -500,8 +730,26 @@
       <c r="H7" s="1">
         <v>49.2508125305175</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-20</v>
       </c>
@@ -522,6 +770,279 @@
       </c>
       <c r="H8" s="1">
         <v>-23.4527683258056</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" t="s">
+        <v>55</v>
+      </c>
+      <c r="N25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>59</v>
+      </c>
+      <c r="N27" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
